--- a/biology/Botanique/Thymus_praecox/Thymus_praecox.xlsx
+++ b/biology/Botanique/Thymus_praecox/Thymus_praecox.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Thym couché ou Thym précoce (Thymus praecox) est une espèce de plantes angiospermes de la famille des Lamiaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Thymus angustifolius var. silvicola Wimm. &amp; Grab., 1829
 Thymus serpyllum proles silvicola (Wimm. &amp; Grab.) Rouy, 1909
@@ -545,9 +559,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (9 août 2014)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (9 août 2014) (Attention liste brute contenant possiblement des synonymes) :
 Thymus praecox subsp. arcticus (Durand) Jalas
 Thymus praecox subsp. britannicus Holub (1973)
 Thymus praecox subsp. caucasicus (Willd. ex Ronniger) Jalas (1986)
